--- a/Code/Results/Cases/Case_3_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77975826776898</v>
+        <v>11.83782777605671</v>
       </c>
       <c r="C2">
-        <v>8.212864413639194</v>
+        <v>12.08617999681385</v>
       </c>
       <c r="D2">
-        <v>5.277585324775678</v>
+        <v>5.176933882879548</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.27176556572406</v>
+        <v>24.36836948232451</v>
       </c>
       <c r="G2">
-        <v>21.21066972985584</v>
+        <v>28.86941921813986</v>
       </c>
       <c r="H2">
-        <v>8.762613909445861</v>
+        <v>14.41038425423528</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.75057470638667</v>
+        <v>8.253370248803121</v>
       </c>
       <c r="L2">
-        <v>8.093524422313228</v>
+        <v>10.72012794738739</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.1146692789379</v>
+        <v>21.93241207309113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80112986361612</v>
+        <v>11.52406240072966</v>
       </c>
       <c r="C3">
-        <v>8.364859894646189</v>
+        <v>12.13715618049211</v>
       </c>
       <c r="D3">
-        <v>5.088169091922254</v>
+        <v>5.105982635988368</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.08455102342801</v>
+        <v>24.4244233285394</v>
       </c>
       <c r="G3">
-        <v>21.06190855721633</v>
+        <v>28.96703019717387</v>
       </c>
       <c r="H3">
-        <v>8.845122981762463</v>
+        <v>14.46015783104575</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.17265950070824</v>
+        <v>7.973659996703547</v>
       </c>
       <c r="L3">
-        <v>7.808820454563207</v>
+        <v>10.69299948657499</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.18862283627512</v>
+        <v>22.01606865379292</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.16460464405857</v>
+        <v>11.32866115244245</v>
       </c>
       <c r="C4">
-        <v>8.460874327606108</v>
+        <v>12.1700509872187</v>
       </c>
       <c r="D4">
-        <v>4.96762347478593</v>
+        <v>5.061309320153142</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.98527833237273</v>
+        <v>24.46520533753716</v>
       </c>
       <c r="G4">
-        <v>20.99659248706755</v>
+        <v>29.03609647572991</v>
       </c>
       <c r="H4">
-        <v>8.901016489723254</v>
+        <v>14.49294187366782</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.80155289620894</v>
+        <v>7.795377433984188</v>
       </c>
       <c r="L4">
-        <v>7.633391006035291</v>
+        <v>10.67847097180289</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.24626698183721</v>
+        <v>22.07200696211601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.89621196049242</v>
+        <v>11.24846112425129</v>
       </c>
       <c r="C5">
-        <v>8.500690049501811</v>
+        <v>12.18385821525728</v>
       </c>
       <c r="D5">
-        <v>4.917475341497351</v>
+        <v>5.042836237016681</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.94869691969246</v>
+        <v>24.4834209588389</v>
       </c>
       <c r="G5">
-        <v>20.97630194147994</v>
+        <v>29.06652808122892</v>
       </c>
       <c r="H5">
-        <v>8.925067301628573</v>
+        <v>14.50686077576121</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.64633125754616</v>
+        <v>7.721150566228078</v>
       </c>
       <c r="L5">
-        <v>7.561852110168846</v>
+        <v>10.67309018205215</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.27270817261597</v>
+        <v>22.09595042626428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.85110063539587</v>
+        <v>11.2351129889369</v>
       </c>
       <c r="C6">
-        <v>8.507343409886214</v>
+        <v>12.18617522973291</v>
       </c>
       <c r="D6">
-        <v>4.909087720315805</v>
+        <v>5.039752901531255</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.94285425274303</v>
+        <v>24.48654195960006</v>
       </c>
       <c r="G6">
-        <v>20.97330807531789</v>
+        <v>29.0717190242787</v>
       </c>
       <c r="H6">
-        <v>8.929136669058298</v>
+        <v>14.50920577493422</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.62031890496251</v>
+        <v>7.708732274133546</v>
       </c>
       <c r="L6">
-        <v>7.549973360561274</v>
+        <v>10.67222942332775</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.27727329379465</v>
+        <v>22.09999551469836</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.1610215133551</v>
+        <v>11.32758170313059</v>
       </c>
       <c r="C7">
-        <v>8.461408489452563</v>
+        <v>12.17023556572891</v>
       </c>
       <c r="D7">
-        <v>4.966951249439408</v>
+        <v>5.061061258104378</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.98476940174638</v>
+        <v>24.46544454053945</v>
       </c>
       <c r="G7">
-        <v>20.99629352821795</v>
+        <v>29.03649764253345</v>
       </c>
       <c r="H7">
-        <v>8.901335743769254</v>
+        <v>14.49312732467573</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.79947554630302</v>
+        <v>7.794382665970441</v>
       </c>
       <c r="L7">
-        <v>7.632426264043605</v>
+        <v>10.67839621383267</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.24661179424022</v>
+        <v>22.07232522554088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44969963845148</v>
+        <v>11.73028092802912</v>
       </c>
       <c r="C8">
-        <v>8.264722402207319</v>
+        <v>12.10342621718615</v>
       </c>
       <c r="D8">
-        <v>5.213179028538056</v>
+        <v>5.152706264539614</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.20392228582799</v>
+        <v>24.38637367882902</v>
       </c>
       <c r="G8">
-        <v>21.15385085637593</v>
+        <v>28.90117417143065</v>
       </c>
       <c r="H8">
-        <v>8.789950979921333</v>
+        <v>14.42708493688178</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.55473749138649</v>
+        <v>8.158322565485268</v>
       </c>
       <c r="L8">
-        <v>7.995548222378352</v>
+        <v>10.71033512541666</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.13755207029804</v>
+        <v>21.96030674413357</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.69594995109271</v>
+        <v>12.49330424759333</v>
       </c>
       <c r="C9">
-        <v>7.899741356263656</v>
+        <v>11.98501585129152</v>
       </c>
       <c r="D9">
-        <v>5.660766745176239</v>
+        <v>5.323178966594573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.76053446733185</v>
+        <v>24.28196969146821</v>
       </c>
       <c r="G9">
-        <v>21.6779384533968</v>
+        <v>28.70868782068685</v>
       </c>
       <c r="H9">
-        <v>8.615055461401589</v>
+        <v>14.31520522510352</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.90343222901656</v>
+        <v>8.817453656491622</v>
       </c>
       <c r="L9">
-        <v>8.698499473956717</v>
+        <v>10.78963724621959</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.02654605232528</v>
+        <v>21.77699821614117</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.17795397122458</v>
+        <v>13.03164172259596</v>
       </c>
       <c r="C10">
-        <v>7.643330272244151</v>
+        <v>11.90562547715355</v>
       </c>
       <c r="D10">
-        <v>5.96631166227656</v>
+        <v>5.442223379666257</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.24931535346007</v>
+        <v>24.23632356047233</v>
       </c>
       <c r="G10">
-        <v>22.2042362900205</v>
+        <v>28.61222929433501</v>
       </c>
       <c r="H10">
-        <v>8.516062401944948</v>
+        <v>14.24374296870409</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.81031215632486</v>
+        <v>9.265367610914801</v>
       </c>
       <c r="L10">
-        <v>9.204443611259723</v>
+        <v>10.85773942811688</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.01573624960666</v>
+        <v>21.66458933425186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.81627065659095</v>
+        <v>13.27059664719521</v>
       </c>
       <c r="C11">
-        <v>7.529027749273097</v>
+        <v>11.87114386467888</v>
       </c>
       <c r="D11">
-        <v>6.099959319794998</v>
+        <v>5.494920540270128</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.48931684823334</v>
+        <v>24.22232969536117</v>
       </c>
       <c r="G11">
-        <v>22.47600095139347</v>
+        <v>28.57820900013864</v>
       </c>
       <c r="H11">
-        <v>8.478137617887988</v>
+        <v>14.21356188196343</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.20420623956201</v>
+        <v>9.460712878248449</v>
       </c>
       <c r="L11">
-        <v>9.431483999704438</v>
+        <v>10.89077847820771</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.02793275405015</v>
+        <v>21.61830821891612</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.05288428263406</v>
+        <v>13.36014620560444</v>
       </c>
       <c r="C12">
-        <v>7.486063620112956</v>
+        <v>11.85832024216455</v>
       </c>
       <c r="D12">
-        <v>6.149779834018671</v>
+        <v>5.514657163121803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.58274859636688</v>
+        <v>24.21800548403882</v>
       </c>
       <c r="G12">
-        <v>22.58366637663311</v>
+        <v>28.56675091213406</v>
       </c>
       <c r="H12">
-        <v>8.464861418808713</v>
+        <v>14.20246766781572</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.3506597655372</v>
+        <v>9.533438295114202</v>
       </c>
       <c r="L12">
-        <v>9.516953242450093</v>
+        <v>10.90357820710801</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.03515682565114</v>
+        <v>21.60148255291973</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.00215140288875</v>
+        <v>13.34090305329438</v>
       </c>
       <c r="C13">
-        <v>7.495302767467717</v>
+        <v>11.86107165669083</v>
       </c>
       <c r="D13">
-        <v>6.139085468620625</v>
+        <v>5.510416394143176</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.56251297374087</v>
+        <v>24.21889340391384</v>
       </c>
       <c r="G13">
-        <v>22.56026586232657</v>
+        <v>28.56915515338066</v>
       </c>
       <c r="H13">
-        <v>8.467671383074721</v>
+        <v>14.20484211862124</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.31923899182394</v>
+        <v>9.517831612464381</v>
       </c>
       <c r="L13">
-        <v>9.498569234157724</v>
+        <v>10.90080884713701</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.03348281439861</v>
+        <v>21.60507509840261</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.83583896550115</v>
+        <v>13.27798318441142</v>
       </c>
       <c r="C14">
-        <v>7.52548675470545</v>
+        <v>11.87008417763579</v>
       </c>
       <c r="D14">
-        <v>6.104073998638964</v>
+        <v>5.496548717148602</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.49695242910787</v>
+        <v>24.2219543947454</v>
       </c>
       <c r="G14">
-        <v>22.48476286301052</v>
+        <v>28.57723774750488</v>
       </c>
       <c r="H14">
-        <v>8.477023255972808</v>
+        <v>14.21264244606865</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.2163093871248</v>
+        <v>9.466721244849071</v>
       </c>
       <c r="L14">
-        <v>9.438526043730121</v>
+        <v>10.89182578110015</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.02847403774345</v>
+        <v>21.61690992143075</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.73330482721667</v>
+        <v>13.2393185048289</v>
       </c>
       <c r="C15">
-        <v>7.544016450359077</v>
+        <v>11.87563502496008</v>
       </c>
       <c r="D15">
-        <v>6.082525177393896</v>
+        <v>5.488025625267431</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.45712675089018</v>
+        <v>24.22395633794403</v>
       </c>
       <c r="G15">
-        <v>22.43913688065043</v>
+        <v>28.58237429302565</v>
       </c>
       <c r="H15">
-        <v>8.482894792857589</v>
+        <v>14.21746396161864</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.15290913445105</v>
+        <v>9.435251157106677</v>
       </c>
       <c r="L15">
-        <v>9.40168040695006</v>
+        <v>10.8863607418608</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.02574961679867</v>
+        <v>21.62425030850136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.13552145887091</v>
+        <v>13.01589865265371</v>
       </c>
       <c r="C16">
-        <v>7.650845884991751</v>
+        <v>11.90791170901725</v>
       </c>
       <c r="D16">
-        <v>5.957468089916104</v>
+        <v>5.438749389249564</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.23398692948236</v>
+        <v>24.23737446558354</v>
       </c>
       <c r="G16">
-        <v>22.18713601895406</v>
+        <v>28.61465160381037</v>
       </c>
       <c r="H16">
-        <v>8.518689203329593</v>
+        <v>14.24576220980931</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.78419271840551</v>
+        <v>9.252428700147645</v>
       </c>
       <c r="L16">
-        <v>9.189538103857295</v>
+        <v>10.85562104762785</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.01529591905708</v>
+        <v>21.66771176188544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.75965448444986</v>
+        <v>12.87725512653452</v>
       </c>
       <c r="C17">
-        <v>7.716969958339853</v>
+        <v>11.92813001096948</v>
       </c>
       <c r="D17">
-        <v>5.879364850784646</v>
+        <v>5.408140248101735</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.10162866163559</v>
+        <v>24.24734135169597</v>
       </c>
       <c r="G17">
-        <v>22.04090680783836</v>
+        <v>28.6369830576973</v>
       </c>
       <c r="H17">
-        <v>8.542512035447796</v>
+        <v>14.26371839886867</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.55320046846883</v>
+        <v>9.13808975895585</v>
       </c>
       <c r="L17">
-        <v>9.058553168913795</v>
+        <v>10.83728538757053</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.01336911808438</v>
+        <v>21.69561864961958</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.54008768055017</v>
+        <v>12.79695668744145</v>
       </c>
       <c r="C18">
-        <v>7.755224089195632</v>
+        <v>11.93991285665435</v>
       </c>
       <c r="D18">
-        <v>5.833939691927919</v>
+        <v>5.390398086029889</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.02716118496066</v>
+        <v>24.25371129792537</v>
       </c>
       <c r="G18">
-        <v>21.95983982849312</v>
+        <v>28.65075515097488</v>
       </c>
       <c r="H18">
-        <v>8.556879309177857</v>
+        <v>14.27426539271283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.41858517124451</v>
+        <v>9.071535074988768</v>
       </c>
       <c r="L18">
-        <v>8.982923617065419</v>
+        <v>10.82693348463129</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.01386306210984</v>
+        <v>21.7121267442305</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.46516437244067</v>
+        <v>12.7696764795349</v>
       </c>
       <c r="C19">
-        <v>7.76821479016969</v>
+        <v>11.94392877624493</v>
       </c>
       <c r="D19">
-        <v>5.818473924849316</v>
+        <v>5.384367721144194</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.00223271279242</v>
+        <v>24.25597745135626</v>
       </c>
       <c r="G19">
-        <v>21.93291062224636</v>
+        <v>28.65557724173281</v>
       </c>
       <c r="H19">
-        <v>8.561856177185966</v>
+        <v>14.27787404831966</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.37270625790433</v>
+        <v>9.048866362415588</v>
       </c>
       <c r="L19">
-        <v>8.957268788300086</v>
+        <v>10.82346209892395</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.01430107214114</v>
+        <v>21.71779449544519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.80001540596576</v>
+        <v>12.89207196984803</v>
       </c>
       <c r="C20">
-        <v>7.709908151917384</v>
+        <v>11.92596182694442</v>
       </c>
       <c r="D20">
-        <v>5.887731211061481</v>
+        <v>5.411412848142628</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.11554637079512</v>
+        <v>24.24621439438769</v>
       </c>
       <c r="G20">
-        <v>22.05615769829731</v>
+        <v>28.63450977700917</v>
       </c>
       <c r="H20">
-        <v>8.539906783416633</v>
+        <v>14.26178425893953</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.57797179054943</v>
+        <v>9.150343380862044</v>
       </c>
       <c r="L20">
-        <v>9.072527253854325</v>
+        <v>10.83921719542325</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.0134073607821</v>
+        <v>21.69260062333158</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.88482702482722</v>
+        <v>13.29649034774576</v>
       </c>
       <c r="C21">
-        <v>7.516612445072332</v>
+        <v>11.86743064458406</v>
       </c>
       <c r="D21">
-        <v>6.11437927178683</v>
+        <v>5.50062799504441</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.51613994363828</v>
+        <v>24.22102883976471</v>
       </c>
       <c r="G21">
-        <v>22.50681019200092</v>
+        <v>28.57482497800742</v>
       </c>
       <c r="H21">
-        <v>8.474246414490716</v>
+        <v>14.21034221669475</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.24661588026508</v>
+        <v>9.481767735106573</v>
       </c>
       <c r="L21">
-        <v>9.456176330005341</v>
+        <v>10.89445655606103</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.02987337383031</v>
+        <v>21.61341473422783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.56409554345045</v>
+        <v>13.55530319746822</v>
       </c>
       <c r="C22">
-        <v>7.392138003596892</v>
+        <v>11.83053949997954</v>
       </c>
       <c r="D22">
-        <v>6.257901257103889</v>
+        <v>5.557656852424416</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.79280497468632</v>
+        <v>24.21025163245028</v>
       </c>
       <c r="G22">
-        <v>22.8290806351078</v>
+        <v>28.54412410265305</v>
       </c>
       <c r="H22">
-        <v>8.437690208768455</v>
+        <v>14.1786728219045</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.66783830728054</v>
+        <v>9.691086600554433</v>
       </c>
       <c r="L22">
-        <v>9.703943774308419</v>
+        <v>10.93223682259098</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.05588843589029</v>
+        <v>21.56574311517723</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.20425845736742</v>
+        <v>13.41769868191273</v>
       </c>
       <c r="C23">
-        <v>7.458408307164778</v>
+        <v>11.85010469366751</v>
       </c>
       <c r="D23">
-        <v>6.181728079354794</v>
+        <v>5.527339369923474</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.64378295986207</v>
+        <v>24.21548335311429</v>
       </c>
       <c r="G23">
-        <v>22.65451199704251</v>
+        <v>28.55974762426185</v>
       </c>
       <c r="H23">
-        <v>8.45659752585405</v>
+        <v>14.19539685154125</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.44447291146183</v>
+        <v>9.580047103389578</v>
       </c>
       <c r="L23">
-        <v>9.57199390761277</v>
+        <v>10.91192182701042</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.04056039066379</v>
+        <v>21.59081231673591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.78177906388936</v>
+        <v>12.88537510760506</v>
       </c>
       <c r="C24">
-        <v>7.713100050404098</v>
+        <v>11.92694156734886</v>
       </c>
       <c r="D24">
-        <v>5.883950405690466</v>
+        <v>5.409933755232972</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.10924910739588</v>
+        <v>24.24672189880852</v>
       </c>
       <c r="G24">
-        <v>22.04925342771055</v>
+        <v>28.63562504013139</v>
       </c>
       <c r="H24">
-        <v>8.541082531916183</v>
+        <v>14.26265798665592</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.56677832655625</v>
+        <v>9.144806068698717</v>
       </c>
       <c r="L24">
-        <v>9.066210576499772</v>
+        <v>10.83834323422251</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.01338509331901</v>
+        <v>21.69396362766147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.11805499078972</v>
+        <v>12.29039003554096</v>
       </c>
       <c r="C25">
-        <v>7.99635012752216</v>
+        <v>12.01570781733036</v>
       </c>
       <c r="D25">
-        <v>5.543660641192604</v>
+        <v>5.278111104856812</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.5960714707399</v>
+        <v>24.30477024989518</v>
       </c>
       <c r="G25">
-        <v>21.51199448775466</v>
+        <v>28.75290032218764</v>
       </c>
       <c r="H25">
-        <v>8.657414792789266</v>
+        <v>14.34358554649128</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.55314211078678</v>
+        <v>8.645325675760516</v>
       </c>
       <c r="L25">
-        <v>8.509858654090992</v>
+        <v>10.76643074911256</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.04474104374504</v>
+        <v>21.82268481889774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.83782777605671</v>
+        <v>14.77975826776902</v>
       </c>
       <c r="C2">
-        <v>12.08617999681385</v>
+        <v>8.212864413639329</v>
       </c>
       <c r="D2">
-        <v>5.176933882879548</v>
+        <v>5.277585324775684</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.36836948232451</v>
+        <v>17.27176556572372</v>
       </c>
       <c r="G2">
-        <v>28.86941921813986</v>
+        <v>21.21066972985551</v>
       </c>
       <c r="H2">
-        <v>14.41038425423528</v>
+        <v>8.762613909445689</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.253370248803121</v>
+        <v>11.75057470638669</v>
       </c>
       <c r="L2">
-        <v>10.72012794738739</v>
+        <v>8.093524422313228</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.93241207309113</v>
+        <v>14.11466927893762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.52406240072966</v>
+        <v>13.80112986361613</v>
       </c>
       <c r="C3">
-        <v>12.13715618049211</v>
+        <v>8.364859894646189</v>
       </c>
       <c r="D3">
-        <v>5.105982635988368</v>
+        <v>5.088169091922247</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.4244233285394</v>
+        <v>17.08455102342789</v>
       </c>
       <c r="G3">
-        <v>28.96703019717387</v>
+        <v>21.0619085572162</v>
       </c>
       <c r="H3">
-        <v>14.46015783104575</v>
+        <v>8.84512298176235</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.973659996703547</v>
+        <v>11.17265950070828</v>
       </c>
       <c r="L3">
-        <v>10.69299948657499</v>
+        <v>7.808820454563235</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.01606865379292</v>
+        <v>14.188622836275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.32866115244245</v>
+        <v>13.16460464405854</v>
       </c>
       <c r="C4">
-        <v>12.1700509872187</v>
+        <v>8.460874327606245</v>
       </c>
       <c r="D4">
-        <v>5.061309320153142</v>
+        <v>4.967623474785819</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.46520533753716</v>
+        <v>16.98527833237277</v>
       </c>
       <c r="G4">
-        <v>29.03609647572991</v>
+        <v>20.99659248706763</v>
       </c>
       <c r="H4">
-        <v>14.49294187366782</v>
+        <v>8.901016489723071</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.795377433984188</v>
+        <v>10.80155289620892</v>
       </c>
       <c r="L4">
-        <v>10.67847097180289</v>
+        <v>7.633391006035288</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.07200696211601</v>
+        <v>14.2462669818372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.24846112425129</v>
+        <v>12.89621196049242</v>
       </c>
       <c r="C5">
-        <v>12.18385821525728</v>
+        <v>8.500690049501678</v>
       </c>
       <c r="D5">
-        <v>5.042836237016681</v>
+        <v>4.917475341497404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.4834209588389</v>
+        <v>16.94869691969229</v>
       </c>
       <c r="G5">
-        <v>29.06652808122892</v>
+        <v>20.9763019414797</v>
       </c>
       <c r="H5">
-        <v>14.50686077576121</v>
+        <v>8.925067301628516</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.721150566228078</v>
+        <v>10.64633125754614</v>
       </c>
       <c r="L5">
-        <v>10.67309018205215</v>
+        <v>7.561852110168806</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.09595042626428</v>
+        <v>14.27270817261585</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.2351129889369</v>
+        <v>12.85110063539582</v>
       </c>
       <c r="C6">
-        <v>12.18617522973291</v>
+        <v>8.507343409886616</v>
       </c>
       <c r="D6">
-        <v>5.039752901531255</v>
+        <v>4.909087720315806</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.48654195960006</v>
+        <v>16.94285425274314</v>
       </c>
       <c r="G6">
-        <v>29.0717190242787</v>
+        <v>20.97330807531803</v>
       </c>
       <c r="H6">
-        <v>14.50920577493422</v>
+        <v>8.92913666905836</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.708732274133546</v>
+        <v>10.62031890496251</v>
       </c>
       <c r="L6">
-        <v>10.67222942332775</v>
+        <v>7.549973360561286</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.09999551469836</v>
+        <v>14.27727329379475</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.32758170313059</v>
+        <v>13.16102151335515</v>
       </c>
       <c r="C7">
-        <v>12.17023556572891</v>
+        <v>8.461408489452159</v>
       </c>
       <c r="D7">
-        <v>5.061061258104378</v>
+        <v>4.966951249439401</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.46544454053945</v>
+        <v>16.98476940174652</v>
       </c>
       <c r="G7">
-        <v>29.03649764253345</v>
+        <v>20.99629352821822</v>
       </c>
       <c r="H7">
-        <v>14.49312732467573</v>
+        <v>8.901335743769321</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.794382665970441</v>
+        <v>10.79947554630306</v>
       </c>
       <c r="L7">
-        <v>10.67839621383267</v>
+        <v>7.632426264043714</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.07232522554088</v>
+        <v>14.24661179424036</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73028092802912</v>
+        <v>14.44969963845145</v>
       </c>
       <c r="C8">
-        <v>12.10342621718615</v>
+        <v>8.264722402207321</v>
       </c>
       <c r="D8">
-        <v>5.152706264539614</v>
+        <v>5.21317902853799</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.38637367882902</v>
+        <v>17.20392228582815</v>
       </c>
       <c r="G8">
-        <v>28.90117417143065</v>
+        <v>21.15385085637606</v>
       </c>
       <c r="H8">
-        <v>14.42708493688178</v>
+        <v>8.789950979921391</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.158322565485268</v>
+        <v>11.55473749138647</v>
       </c>
       <c r="L8">
-        <v>10.71033512541666</v>
+        <v>7.995548222378328</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.96030674413357</v>
+        <v>14.1375520702981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.49330424759333</v>
+        <v>16.69594995109279</v>
       </c>
       <c r="C9">
-        <v>11.98501585129152</v>
+        <v>7.899741356263251</v>
       </c>
       <c r="D9">
-        <v>5.323178966594573</v>
+        <v>5.660766745176198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.28196969146821</v>
+        <v>17.76053446733178</v>
       </c>
       <c r="G9">
-        <v>28.70868782068685</v>
+        <v>21.67793845339668</v>
       </c>
       <c r="H9">
-        <v>14.31520522510352</v>
+        <v>8.615055461401527</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.817453656491622</v>
+        <v>12.90343222901656</v>
       </c>
       <c r="L9">
-        <v>10.78963724621959</v>
+        <v>8.698499473956717</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.77699821614117</v>
+        <v>14.02654605232517</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.03164172259596</v>
+        <v>18.17795397122461</v>
       </c>
       <c r="C10">
-        <v>11.90562547715355</v>
+        <v>7.643330272244155</v>
       </c>
       <c r="D10">
-        <v>5.442223379666257</v>
+        <v>5.966311662276413</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.23632356047233</v>
+        <v>18.24931535346009</v>
       </c>
       <c r="G10">
-        <v>28.61222929433501</v>
+        <v>22.20423629002038</v>
       </c>
       <c r="H10">
-        <v>14.24374296870409</v>
+        <v>8.516062401944998</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.265367610914801</v>
+        <v>13.81031215632489</v>
       </c>
       <c r="L10">
-        <v>10.85773942811688</v>
+        <v>9.204443611259727</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.66458933425186</v>
+        <v>14.01573624960663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.27059664719521</v>
+        <v>18.81627065659101</v>
       </c>
       <c r="C11">
-        <v>11.87114386467888</v>
+        <v>7.52902774927256</v>
       </c>
       <c r="D11">
-        <v>5.494920540270128</v>
+        <v>6.099959319795091</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.22232969536117</v>
+        <v>18.48931684823332</v>
       </c>
       <c r="G11">
-        <v>28.57820900013864</v>
+        <v>22.47600095139352</v>
       </c>
       <c r="H11">
-        <v>14.21356188196343</v>
+        <v>8.478137617887938</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.460712878248449</v>
+        <v>14.20420623956199</v>
       </c>
       <c r="L11">
-        <v>10.89077847820771</v>
+        <v>9.431483999704499</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.61830821891612</v>
+        <v>14.02793275405015</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.36014620560444</v>
+        <v>19.05288428263409</v>
       </c>
       <c r="C12">
-        <v>11.85832024216455</v>
+        <v>7.48606362011282</v>
       </c>
       <c r="D12">
-        <v>5.514657163121803</v>
+        <v>6.149779834018653</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.21800548403882</v>
+        <v>18.58274859636686</v>
       </c>
       <c r="G12">
-        <v>28.56675091213406</v>
+        <v>22.58366637663311</v>
       </c>
       <c r="H12">
-        <v>14.20246766781572</v>
+        <v>8.464861418808667</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.533438295114202</v>
+        <v>14.35065976553719</v>
       </c>
       <c r="L12">
-        <v>10.90357820710801</v>
+        <v>9.516953242450075</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.60148255291973</v>
+        <v>14.03515682565112</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.34090305329438</v>
+        <v>19.00215140288874</v>
       </c>
       <c r="C13">
-        <v>11.86107165669083</v>
+        <v>7.495302767467714</v>
       </c>
       <c r="D13">
-        <v>5.510416394143176</v>
+        <v>6.13908546862081</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.21889340391384</v>
+        <v>18.56251297374087</v>
       </c>
       <c r="G13">
-        <v>28.56915515338066</v>
+        <v>22.56026586232661</v>
       </c>
       <c r="H13">
-        <v>14.20484211862124</v>
+        <v>8.46767138307484</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.517831612464381</v>
+        <v>14.31923899182394</v>
       </c>
       <c r="L13">
-        <v>10.90080884713701</v>
+        <v>9.49856923415771</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.60507509840261</v>
+        <v>14.03348281439865</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.27798318441142</v>
+        <v>18.83583896550116</v>
       </c>
       <c r="C14">
-        <v>11.87008417763579</v>
+        <v>7.525486754705449</v>
       </c>
       <c r="D14">
-        <v>5.496548717148602</v>
+        <v>6.104073998639057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.2219543947454</v>
+        <v>18.49695242910786</v>
       </c>
       <c r="G14">
-        <v>28.57723774750488</v>
+        <v>22.48476286301053</v>
       </c>
       <c r="H14">
-        <v>14.21264244606865</v>
+        <v>8.477023255972862</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.466721244849071</v>
+        <v>14.2163093871248</v>
       </c>
       <c r="L14">
-        <v>10.89182578110015</v>
+        <v>9.438526043730107</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.61690992143075</v>
+        <v>14.02847403774346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.2393185048289</v>
+        <v>18.73330482721665</v>
       </c>
       <c r="C15">
-        <v>11.87563502496008</v>
+        <v>7.544016450359211</v>
       </c>
       <c r="D15">
-        <v>5.488025625267431</v>
+        <v>6.082525177393908</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.22395633794403</v>
+        <v>18.4571267508902</v>
       </c>
       <c r="G15">
-        <v>28.58237429302565</v>
+        <v>22.43913688065044</v>
       </c>
       <c r="H15">
-        <v>14.21746396161864</v>
+        <v>8.482894792857634</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.435251157106677</v>
+        <v>14.15290913445104</v>
       </c>
       <c r="L15">
-        <v>10.8863607418608</v>
+        <v>9.401680406950035</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.62425030850136</v>
+        <v>14.0257496167987</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.01589865265371</v>
+        <v>18.135521458871</v>
       </c>
       <c r="C16">
-        <v>11.90791170901725</v>
+        <v>7.650845884991613</v>
       </c>
       <c r="D16">
-        <v>5.438749389249564</v>
+        <v>5.957468089916071</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.23737446558354</v>
+        <v>18.23398692948229</v>
       </c>
       <c r="G16">
-        <v>28.61465160381037</v>
+        <v>22.18713601895383</v>
       </c>
       <c r="H16">
-        <v>14.24576220980931</v>
+        <v>8.518689203329547</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.252428700147645</v>
+        <v>13.78419271840557</v>
       </c>
       <c r="L16">
-        <v>10.85562104762785</v>
+        <v>9.189538103857274</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.66771176188544</v>
+        <v>14.01529591905693</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.87725512653452</v>
+        <v>17.75965448444987</v>
       </c>
       <c r="C17">
-        <v>11.92813001096948</v>
+        <v>7.716969958339988</v>
       </c>
       <c r="D17">
-        <v>5.408140248101735</v>
+        <v>5.879364850784654</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.24734135169597</v>
+        <v>18.1016286616355</v>
       </c>
       <c r="G17">
-        <v>28.6369830576973</v>
+        <v>22.04090680783818</v>
       </c>
       <c r="H17">
-        <v>14.26371839886867</v>
+        <v>8.542512035447789</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.13808975895585</v>
+        <v>13.55320046846887</v>
       </c>
       <c r="L17">
-        <v>10.83728538757053</v>
+        <v>9.0585531689138</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.69561864961958</v>
+        <v>14.01336911808429</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.79695668744145</v>
+        <v>17.54008768055012</v>
       </c>
       <c r="C18">
-        <v>11.93991285665435</v>
+        <v>7.755224089195634</v>
       </c>
       <c r="D18">
-        <v>5.390398086029889</v>
+        <v>5.833939691927919</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.25371129792537</v>
+        <v>18.02716118496061</v>
       </c>
       <c r="G18">
-        <v>28.65075515097488</v>
+        <v>21.95983982849306</v>
       </c>
       <c r="H18">
-        <v>14.27426539271283</v>
+        <v>8.556879309177834</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.071535074988768</v>
+        <v>13.41858517124445</v>
       </c>
       <c r="L18">
-        <v>10.82693348463129</v>
+        <v>8.982923617065428</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.7121267442305</v>
+        <v>14.01386306210981</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.7696764795349</v>
+        <v>17.46516437244067</v>
       </c>
       <c r="C19">
-        <v>11.94392877624493</v>
+        <v>7.768214790169958</v>
       </c>
       <c r="D19">
-        <v>5.384367721144194</v>
+        <v>5.818473924849322</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.25597745135626</v>
+        <v>18.00223271279243</v>
       </c>
       <c r="G19">
-        <v>28.65557724173281</v>
+        <v>21.93291062224634</v>
       </c>
       <c r="H19">
-        <v>14.27787404831966</v>
+        <v>8.56185617718598</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.048866362415588</v>
+        <v>13.37270625790435</v>
       </c>
       <c r="L19">
-        <v>10.82346209892395</v>
+        <v>8.957268788300096</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.71779449544519</v>
+        <v>14.01430107214114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.89207196984803</v>
+        <v>17.80001540596575</v>
       </c>
       <c r="C20">
-        <v>11.92596182694442</v>
+        <v>7.709908151917387</v>
       </c>
       <c r="D20">
-        <v>5.411412848142628</v>
+        <v>5.887731211061387</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.24621439438769</v>
+        <v>18.11554637079516</v>
       </c>
       <c r="G20">
-        <v>28.63450977700917</v>
+        <v>22.05615769829718</v>
       </c>
       <c r="H20">
-        <v>14.26178425893953</v>
+        <v>8.539906783416685</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.150343380862044</v>
+        <v>13.57797179054943</v>
       </c>
       <c r="L20">
-        <v>10.83921719542325</v>
+        <v>9.072527253854316</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.69260062333158</v>
+        <v>14.0134073607821</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.29649034774576</v>
+        <v>18.88482702482719</v>
       </c>
       <c r="C21">
-        <v>11.86743064458406</v>
+        <v>7.516612445072599</v>
       </c>
       <c r="D21">
-        <v>5.50062799504441</v>
+        <v>6.114379271787</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.22102883976471</v>
+        <v>18.51613994363819</v>
       </c>
       <c r="G21">
-        <v>28.57482497800742</v>
+        <v>22.50681019200083</v>
       </c>
       <c r="H21">
-        <v>14.21034221669475</v>
+        <v>8.474246414490674</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.481767735106573</v>
+        <v>14.24661588026506</v>
       </c>
       <c r="L21">
-        <v>10.89445655606103</v>
+        <v>9.456176330005366</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.61341473422783</v>
+        <v>14.02987337383026</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.55530319746822</v>
+        <v>19.56409554345048</v>
       </c>
       <c r="C22">
-        <v>11.83053949997954</v>
+        <v>7.392138003596887</v>
       </c>
       <c r="D22">
-        <v>5.557656852424416</v>
+        <v>6.257901257103813</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.21025163245028</v>
+        <v>18.79280497468627</v>
       </c>
       <c r="G22">
-        <v>28.54412410265305</v>
+        <v>22.82908063510765</v>
       </c>
       <c r="H22">
-        <v>14.1786728219045</v>
+        <v>8.437690208768425</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.691086600554433</v>
+        <v>14.66783830728061</v>
       </c>
       <c r="L22">
-        <v>10.93223682259098</v>
+        <v>9.703943774308446</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.56574311517723</v>
+        <v>14.05588843589016</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.41769868191273</v>
+        <v>19.20425845736739</v>
       </c>
       <c r="C23">
-        <v>11.85010469366751</v>
+        <v>7.458408307164913</v>
       </c>
       <c r="D23">
-        <v>5.527339369923474</v>
+        <v>6.18172807935478</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.21548335311429</v>
+        <v>18.64378295986209</v>
       </c>
       <c r="G23">
-        <v>28.55974762426185</v>
+        <v>22.65451199704251</v>
       </c>
       <c r="H23">
-        <v>14.19539685154125</v>
+        <v>8.456597525854058</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.580047103389578</v>
+        <v>14.44447291146183</v>
       </c>
       <c r="L23">
-        <v>10.91192182701042</v>
+        <v>9.571993907612745</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.59081231673591</v>
+        <v>14.04056039066379</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.88537510760506</v>
+        <v>17.78177906388937</v>
       </c>
       <c r="C24">
-        <v>11.92694156734886</v>
+        <v>7.713100050404373</v>
       </c>
       <c r="D24">
-        <v>5.409933755232972</v>
+        <v>5.883950405690478</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.24672189880852</v>
+        <v>18.10924910739576</v>
       </c>
       <c r="G24">
-        <v>28.63562504013139</v>
+        <v>22.04925342771023</v>
       </c>
       <c r="H24">
-        <v>14.26265798665592</v>
+        <v>8.54108253191613</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.144806068698717</v>
+        <v>13.56677832655634</v>
       </c>
       <c r="L24">
-        <v>10.83834323422251</v>
+        <v>9.066210576499778</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.69396362766147</v>
+        <v>14.01338509331883</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.29039003554096</v>
+        <v>16.11805499078975</v>
       </c>
       <c r="C25">
-        <v>12.01570781733036</v>
+        <v>7.996350127522159</v>
       </c>
       <c r="D25">
-        <v>5.278111104856812</v>
+        <v>5.543660641192592</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.30477024989518</v>
+        <v>17.5960714707399</v>
       </c>
       <c r="G25">
-        <v>28.75290032218764</v>
+        <v>21.51199448775468</v>
       </c>
       <c r="H25">
-        <v>14.34358554649128</v>
+        <v>8.65741479278927</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.645325675760516</v>
+        <v>12.55314211078681</v>
       </c>
       <c r="L25">
-        <v>10.76643074911256</v>
+        <v>8.50985865409098</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.82268481889774</v>
+        <v>14.04474104374504</v>
       </c>
     </row>
   </sheetData>
